--- a/data/formatted/basicdata200607.xlsx
+++ b/data/formatted/basicdata200607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E791CC2-3D5F-47C7-8F6D-55AA08BC8546}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE2B9B-F004-41FC-B48A-F43C5C98E7DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{8715E93A-1354-40F3-89A1-D92B7E882005}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{8715E93A-1354-40F3-89A1-D92B7E882005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200607.xlsx
+++ b/data/formatted/basicdata200607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE2B9B-F004-41FC-B48A-F43C5C98E7DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116A6CB-70E4-403D-B316-98CF33DF29E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{8715E93A-1354-40F3-89A1-D92B7E882005}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{8715E93A-1354-40F3-89A1-D92B7E882005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200607.xlsx
+++ b/data/formatted/basicdata200607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116A6CB-70E4-403D-B316-98CF33DF29E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C90C8A2-CB02-4A6D-AC44-DFF20C5A518C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{8715E93A-1354-40F3-89A1-D92B7E882005}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8715E93A-1354-40F3-89A1-D92B7E882005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Albany (NY) NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Arkansas NCAA</t>
-  </si>
-  <si>
-    <t>Belmont NCAA</t>
-  </si>
-  <si>
-    <t>Boston College NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>Central Connecticut State NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Davidson NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Eastern Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>George Washington NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Georgia Tech NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Holy Cross NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Jackson State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Long Beach State NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Miami (OH) NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Nevada-Las Vegas NCAA</t>
-  </si>
-  <si>
-    <t>Nevada NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico State NCAA</t>
-  </si>
-  <si>
-    <t>Niagara NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>North Texas NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Old Dominion NCAA</t>
-  </si>
-  <si>
-    <t>Oral Roberts NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Pennsylvania NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Southern California NCAA</t>
-  </si>
-  <si>
-    <t>Southern Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M-Corpus Christi NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Texas Tech NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Vanderbilt NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Tech NCAA</t>
-  </si>
-  <si>
-    <t>Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Washington State NCAA</t>
-  </si>
-  <si>
-    <t>Weber State NCAA</t>
-  </si>
-  <si>
-    <t>Winthrop NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Wright State NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Albany (NY)</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Central Connecticut State</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Jackson State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Long Beach State</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Nevada-Las Vegas</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Oral Roberts</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Southern California</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Corpus Christi</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wright State</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
